--- a/Statystyki_2018/Template/otrr.xlsx
+++ b/Statystyki_2018/Template/otrr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rskowron\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\priv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2C8D918-4167-4B2B-9BE8-C12A004C8495}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C350219C-D649-4AFA-8D0B-A3AB424B510D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ruch spraw" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
   <si>
     <t/>
   </si>
   <si>
-    <t>Informacje o ruchu sprawa za miesiąc:  lipiec 2019 roku.</t>
-  </si>
-  <si>
     <t>Opis</t>
   </si>
   <si>
@@ -58,15 +55,6 @@
     <t>WSC</t>
   </si>
   <si>
-    <t>Npw*</t>
-  </si>
-  <si>
-    <t>Now</t>
-  </si>
-  <si>
-    <t>Nk</t>
-  </si>
-  <si>
     <t>Nkd*</t>
   </si>
   <si>
@@ -76,12 +64,6 @@
     <t>L.p.</t>
   </si>
   <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
     <t>Funkcja</t>
   </si>
   <si>
@@ -106,18 +88,9 @@
     <t>posiedzenia</t>
   </si>
   <si>
-    <t>Rsm</t>
-  </si>
-  <si>
     <t>Rmo</t>
   </si>
   <si>
-    <t>NWp*</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
     <t>Nkd</t>
   </si>
   <si>
@@ -137,13 +110,25 @@
   </si>
   <si>
     <t>Pozostało w referatach spraw kategorii</t>
+  </si>
+  <si>
+    <t>Rcps</t>
+  </si>
+  <si>
+    <t>RCz</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko sędziego</t>
+  </si>
+  <si>
+    <t>Nmo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -151,6 +136,14 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -169,19 +162,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -197,9 +259,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -237,7 +299,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -343,7 +405,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -492,135 +554,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" t="s">
-        <v>15</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:M4"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:L2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -629,328 +652,294 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W1"/>
+      <selection activeCell="B4" sqref="B4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" style="1" customWidth="1"/>
+    <col min="5" max="16" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="18" max="19" width="10.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="R4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="S4" s="7"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="Q5" s="9"/>
+      <c r="R5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" t="s">
+      <c r="S5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S5" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="2"/>
-      <c r="V5" t="s">
-        <v>33</v>
-      </c>
-      <c r="W5" t="s">
-        <v>34</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="A3:W3"/>
+  <mergeCells count="11">
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:S3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:P4"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:T4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="O2" sqref="O2:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="2"/>
+      <c r="M3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:R1"/>
+  <mergeCells count="6">
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -959,105 +948,98 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
-        <v>32</v>
+      <c r="M3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:R1"/>
+  <mergeCells count="5">
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Statystyki_2018/Template/otrr.xlsx
+++ b/Statystyki_2018/Template/otrr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\priv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C350219C-D649-4AFA-8D0B-A3AB424B510D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B256250C-EA8C-4A87-99CC-844D6F842018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ruch spraw" sheetId="1" r:id="rId1"/>
@@ -217,10 +217,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -230,6 +228,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -239,8 +241,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -561,30 +561,31 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="36.109375" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -666,90 +667,90 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.77734375" style="1" customWidth="1"/>
     <col min="5" max="16" width="10.6640625" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
     <col min="18" max="19" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
     </row>
     <row r="4" spans="1:19" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -780,7 +781,7 @@
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="12"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
@@ -861,7 +862,7 @@
   <cols>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.21875" style="1" customWidth="1"/>
     <col min="15" max="15" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -870,13 +871,13 @@
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -899,7 +900,7 @@
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="12"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
@@ -955,7 +956,7 @@
   </sheetPr>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
@@ -971,13 +972,13 @@
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="7" t="s">

--- a/Statystyki_2018/Template/otrr.xlsx
+++ b/Statystyki_2018/Template/otrr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\priv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B256250C-EA8C-4A87-99CC-844D6F842018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1286D5CD-07BD-47D5-9B1B-BA8EA05919AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32415" yWindow="1080" windowWidth="17280" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ruch spraw" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t/>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>Pozostało w referatach spraw kategorii</t>
-  </si>
-  <si>
-    <t>Rcps</t>
   </si>
   <si>
     <t>RCz</t>
@@ -243,7 +240,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -259,9 +256,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -299,7 +296,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -405,7 +402,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -559,19 +556,18 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.109375" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -585,9 +581,8 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -603,9 +598,8 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -623,28 +617,25 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B2:K2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -751,7 +742,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>15</v>
@@ -801,7 +792,7 @@
         <v>7</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>8</v>
@@ -810,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>22</v>
@@ -878,7 +869,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>26</v>
@@ -926,7 +917,7 @@
         <v>9</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>23</v>
@@ -956,7 +947,7 @@
   </sheetPr>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
@@ -979,7 +970,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>28</v>
@@ -1025,7 +1016,7 @@
         <v>9</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>22</v>

--- a/Statystyki_2018/Template/otrr.xlsx
+++ b/Statystyki_2018/Template/otrr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ruch spraw" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
   <si>
     <t xml:space="preserve">Opis</t>
   </si>
@@ -115,10 +115,13 @@
     <t xml:space="preserve">Odroczenia liczba spraw odroczonych</t>
   </si>
   <si>
+    <t xml:space="preserve">,Nkd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pozostało w referatach spraw kategorii</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rmo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pozostało w referatach spraw kategorii</t>
   </si>
 </sst>
 </file>
@@ -263,11 +266,11 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.11"/>
   </cols>
@@ -366,7 +369,7 @@
       <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.78"/>
@@ -560,18 +563,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A2:O3"/>
+  <dimension ref="A2:P3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.66"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -599,11 +602,12 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -624,7 +628,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>23</v>
@@ -635,10 +639,13 @@
       <c r="M3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -646,8 +653,8 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="P2:P3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -670,9 +677,9 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.55"/>
   </cols>
@@ -725,7 +732,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>23</v>
